--- a/CIS_marking_scheme_template_v4.1 (2).xlsx
+++ b/CIS_marking_scheme_template_v4.1 (2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chrprr1\Desktop\partage\cepegra\skills\2022\startechs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chrprr1\Desktop\partage\cepegra\skills\2022\startechs\TPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="187">
   <si>
     <t>Mark</t>
   </si>
@@ -439,9 +439,6 @@
     <t>Test route Users POST</t>
   </si>
   <si>
-    <t>Test route Games POST</t>
-  </si>
-  <si>
     <t>Absence de ".php" dans l'url</t>
   </si>
   <si>
@@ -451,27 +448,9 @@
     <t>Test structure route Questions GET</t>
   </si>
   <si>
-    <t>Test structure route Users GET</t>
-  </si>
-  <si>
-    <t>Test structure route Games GET</t>
-  </si>
-  <si>
-    <t>Test structure envoi POST route Users</t>
-  </si>
-  <si>
-    <t>Test structure envoi POST route Games</t>
-  </si>
-  <si>
     <t>Développement personnel et pas Cockpit</t>
   </si>
   <si>
-    <t>Test structure response POST route Users si existe</t>
-  </si>
-  <si>
-    <t>Test structure response POST route Games</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -496,9 +475,6 @@
     <t>Responses en vrai Json et non text</t>
   </si>
   <si>
-    <t>Absence de problèmes de CORS</t>
-  </si>
-  <si>
     <t>Toutes les questions sont affichées</t>
   </si>
   <si>
@@ -602,6 +578,39 @@
   </si>
   <si>
     <t>F1</t>
+  </si>
+  <si>
+    <t>Test route One User by ID GET</t>
+  </si>
+  <si>
+    <t>Test route users Get wrong id</t>
+  </si>
+  <si>
+    <t>Test routes user by wrong alias</t>
+  </si>
+  <si>
+    <t>Test routes games by _id user</t>
+  </si>
+  <si>
+    <t>Test route One User by Alias GET</t>
+  </si>
+  <si>
+    <t>Test  route Games POST</t>
+  </si>
+  <si>
+    <t>Test response POST route Users no auth</t>
+  </si>
+  <si>
+    <t>Test response POST route Games no auth</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>moins 0,5 pt par erreur, 0 si pas de réponse</t>
   </si>
 </sst>
 </file>
@@ -665,7 +674,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,8 +698,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -865,11 +880,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,35 +1326,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1342,30 +1409,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1672,10 +1715,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N188"/>
+  <dimension ref="A1:N194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G126" sqref="G126"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85:G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1696,19 +1739,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="172"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="165"/>
     </row>
     <row r="2" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
@@ -1716,33 +1759,33 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="160"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="1:11" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="169"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="159"/>
       <c r="I4" s="12" t="s">
         <v>16</v>
       </c>
@@ -1757,20 +1800,20 @@
       <c r="A5" s="17">
         <v>1</v>
       </c>
-      <c r="B5" s="153" t="s">
+      <c r="B5" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="155"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="168"/>
       <c r="I5" s="19">
         <v>6</v>
       </c>
       <c r="J5" s="18">
-        <f>SUMIF(I30:I187, A5, K30:K187)</f>
+        <f>SUMIF(I30:I193, A5, K30:K193)</f>
         <v>6</v>
       </c>
       <c r="K5" s="18">
@@ -1782,20 +1825,20 @@
       <c r="A6" s="17">
         <v>2</v>
       </c>
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="155"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="168"/>
       <c r="I6" s="19">
         <v>6</v>
       </c>
       <c r="J6" s="18">
-        <f>SUMIF(I30:I187, A6, K30:K187)</f>
+        <f>SUMIF(I30:I193, A6, K30:K193)</f>
         <v>6</v>
       </c>
       <c r="K6" s="18">
@@ -1807,20 +1850,20 @@
       <c r="A7" s="17">
         <v>3</v>
       </c>
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="155"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="168"/>
       <c r="I7" s="19">
         <v>9</v>
       </c>
       <c r="J7" s="18">
-        <f>SUMIF(I30:I187, A7, K30:K187)</f>
+        <f>SUMIF(I30:I193, A7, K30:K193)</f>
         <v>9</v>
       </c>
       <c r="K7" s="18">
@@ -1832,20 +1875,20 @@
       <c r="A8" s="17">
         <v>4</v>
       </c>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="155"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="168"/>
       <c r="I8" s="19">
         <v>24</v>
       </c>
       <c r="J8" s="18">
-        <f>SUMIF(I30:I187, A8, K30:K187)</f>
+        <f>SUMIF(I30:I193, A8, K30:K193)</f>
         <v>23.5</v>
       </c>
       <c r="K8" s="18">
@@ -1857,20 +1900,20 @@
       <c r="A9" s="17">
         <v>5</v>
       </c>
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="155"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="168"/>
       <c r="I9" s="19">
         <v>33</v>
       </c>
       <c r="J9" s="18">
-        <f>SUMIF(I28:I185, A9, K28:K185)</f>
+        <f>SUMIF(I28:I191, A9, K28:K191)</f>
         <v>33.5</v>
       </c>
       <c r="K9" s="18">
@@ -1882,20 +1925,20 @@
       <c r="A10" s="135">
         <v>6</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="175"/>
       <c r="I10" s="136">
         <v>22</v>
       </c>
       <c r="J10" s="136">
-        <f>SUMIF(I28:I185, A10, K28:K185)</f>
+        <f>SUMIF(I28:I191, A10, K28:K191)</f>
         <v>22</v>
       </c>
       <c r="K10" s="136">
@@ -1907,16 +1950,16 @@
       <c r="A11" s="17">
         <v>7</v>
       </c>
-      <c r="B11" s="153"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="155"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="168"/>
       <c r="I11" s="19"/>
       <c r="J11" s="18">
-        <f>SUMIF(I30:I187, A11, K30:K187)</f>
+        <f>SUMIF(I30:I193, A11, K30:K193)</f>
         <v>0</v>
       </c>
       <c r="K11" s="18">
@@ -1928,16 +1971,16 @@
       <c r="A12" s="21">
         <v>8</v>
       </c>
-      <c r="B12" s="150"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="152"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="173"/>
       <c r="I12" s="22"/>
       <c r="J12" s="22">
-        <f>SUMIF(I30:I187, A12, K30:K187)</f>
+        <f>SUMIF(I30:I193, A12, K30:K193)</f>
         <v>0</v>
       </c>
       <c r="K12" s="22">
@@ -1948,10 +1991,10 @@
     <row r="13" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="I13" s="165" t="s">
+      <c r="I13" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="166"/>
+      <c r="J13" s="170"/>
       <c r="K13" s="22">
         <f>SUM(K5:K12)</f>
         <v>1</v>
@@ -1971,35 +2014,35 @@
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="160"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="162"/>
     </row>
     <row r="17" spans="1:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="161" t="s">
+      <c r="B17" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="163"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="178"/>
       <c r="K17" s="11" t="s">
         <v>0</v>
       </c>
@@ -2008,17 +2051,17 @@
       <c r="A18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="164" t="s">
+      <c r="B18" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="155"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="168"/>
       <c r="K18" s="19">
         <v>22</v>
       </c>
@@ -2027,17 +2070,17 @@
       <c r="A19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="164" t="s">
+      <c r="B19" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="155"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="168"/>
       <c r="K19" s="19">
         <v>19</v>
       </c>
@@ -2046,17 +2089,17 @@
       <c r="A20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="164" t="s">
+      <c r="B20" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="154"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="155"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="168"/>
       <c r="K20" s="19">
         <v>19</v>
       </c>
@@ -2065,17 +2108,17 @@
       <c r="A21" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="153" t="s">
+      <c r="B21" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="155"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="168"/>
       <c r="K21" s="19">
         <v>19</v>
       </c>
@@ -2084,17 +2127,17 @@
       <c r="A22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="153" t="s">
+      <c r="B22" s="166" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="154"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="155"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="168"/>
       <c r="K22" s="19">
         <v>19</v>
       </c>
@@ -2103,17 +2146,17 @@
       <c r="A23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="153" t="s">
+      <c r="B23" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="155"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="168"/>
       <c r="K23" s="19">
         <v>2</v>
       </c>
@@ -2122,15 +2165,15 @@
       <c r="A24" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="153"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="155"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="168"/>
       <c r="K24" s="19"/>
       <c r="L24" s="3"/>
     </row>
@@ -2138,30 +2181,30 @@
       <c r="A25" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="153"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="155"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="168"/>
       <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="150"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="152"/>
+      <c r="B26" s="171"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="173"/>
       <c r="K26" s="22"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -3300,95 +3343,87 @@
         <v>5</v>
       </c>
       <c r="N77" s="48">
-        <f>SUM(K78:K96)</f>
+        <f>SUM(K79:K102)</f>
         <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C78" s="17"/>
-      <c r="D78" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E78" s="143" t="s">
-        <v>110</v>
-      </c>
+      <c r="D78" s="154"/>
+      <c r="E78" s="155"/>
       <c r="F78" s="17"/>
-      <c r="G78" s="143"/>
-      <c r="H78" s="143"/>
-      <c r="I78" s="17">
-        <v>1</v>
-      </c>
+      <c r="G78" s="151"/>
+      <c r="H78" s="151"/>
+      <c r="I78" s="17"/>
       <c r="J78" s="17"/>
-      <c r="K78" s="134">
-        <v>1</v>
-      </c>
+      <c r="K78" s="134"/>
     </row>
     <row r="79" spans="1:14" s="142" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="17"/>
       <c r="B79" s="143"/>
       <c r="C79" s="17"/>
-      <c r="D79" s="146" t="s">
-        <v>60</v>
-      </c>
-      <c r="E79" s="148" t="s">
-        <v>125</v>
+      <c r="D79" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E79" s="143" t="s">
+        <v>110</v>
       </c>
       <c r="F79" s="17"/>
       <c r="G79" s="143"/>
       <c r="H79" s="143"/>
       <c r="I79" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J79" s="17"/>
       <c r="K79" s="134">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" s="142" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17"/>
-      <c r="B80" s="16"/>
+      <c r="B80" s="143"/>
       <c r="C80" s="17"/>
       <c r="D80" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="E80" s="148" t="s">
+      <c r="E80" s="153" t="s">
         <v>132</v>
       </c>
-      <c r="F80" s="17"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
+      <c r="F80" s="143"/>
+      <c r="G80" s="143"/>
+      <c r="H80" s="143"/>
       <c r="I80" s="17">
         <v>6</v>
       </c>
-      <c r="J80" s="17"/>
-      <c r="K80" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J80" s="143"/>
+      <c r="K80" s="134">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="142" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17"/>
-      <c r="B81" s="16"/>
+      <c r="B81" s="143"/>
       <c r="C81" s="17"/>
       <c r="D81" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="E81" s="148" t="s">
-        <v>126</v>
-      </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
+      <c r="E81" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="F81" s="143"/>
+      <c r="G81" s="143"/>
+      <c r="H81" s="143"/>
       <c r="I81" s="17">
         <v>6</v>
       </c>
-      <c r="J81" s="17"/>
-      <c r="K81" s="19">
+      <c r="J81" s="143"/>
+      <c r="K81" s="134">
         <v>1</v>
       </c>
     </row>
@@ -3399,714 +3434,682 @@
       <c r="D82" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="E82" s="148" t="s">
-        <v>133</v>
-      </c>
-      <c r="F82" s="17"/>
+      <c r="E82" s="147" t="s">
+        <v>129</v>
+      </c>
+      <c r="F82" s="143"/>
       <c r="G82" s="143"/>
       <c r="H82" s="143"/>
       <c r="I82" s="17">
         <v>6</v>
       </c>
-      <c r="J82" s="17"/>
+      <c r="J82" s="143"/>
       <c r="K82" s="134">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" s="142" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="17"/>
-      <c r="B83" s="16"/>
+      <c r="B83" s="143"/>
       <c r="C83" s="17"/>
       <c r="D83" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="E83" s="148" t="s">
-        <v>127</v>
-      </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
+      <c r="E83" s="147" t="s">
+        <v>140</v>
+      </c>
+      <c r="F83" s="143"/>
+      <c r="G83" s="143"/>
+      <c r="H83" s="143"/>
       <c r="I83" s="17">
         <v>6</v>
       </c>
-      <c r="J83" s="17"/>
-      <c r="K83" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="142" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="17"/>
-      <c r="B84" s="143"/>
+      <c r="J83" s="143"/>
+      <c r="K83" s="134">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="150" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" s="147" t="s">
+        <v>185</v>
+      </c>
       <c r="C84" s="17"/>
-      <c r="D84" s="146" t="s">
-        <v>60</v>
-      </c>
-      <c r="E84" s="147" t="s">
-        <v>134</v>
-      </c>
-      <c r="F84" s="137"/>
-      <c r="G84" s="143"/>
-      <c r="H84" s="143"/>
-      <c r="I84" s="17">
-        <v>6</v>
-      </c>
-      <c r="J84" s="137"/>
-      <c r="K84" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D84" s="146"/>
+      <c r="E84" s="147"/>
+      <c r="F84" s="151"/>
+      <c r="G84" s="151"/>
+      <c r="H84" s="151"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="151"/>
+      <c r="K84" s="134"/>
+    </row>
+    <row r="85" spans="1:11" s="150" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="17"/>
-      <c r="B85" s="16"/>
+      <c r="B85" s="151"/>
       <c r="C85" s="17"/>
       <c r="D85" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="E85" s="148" t="s">
-        <v>128</v>
-      </c>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
+      <c r="E85" s="152" t="s">
+        <v>131</v>
+      </c>
+      <c r="F85" s="17"/>
+      <c r="G85" s="149" t="s">
+        <v>186</v>
+      </c>
+      <c r="H85" s="149"/>
       <c r="I85" s="17">
         <v>6</v>
       </c>
-      <c r="J85" s="16"/>
-      <c r="K85" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J85" s="17"/>
+      <c r="K85" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="150" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="17"/>
-      <c r="B86" s="143"/>
+      <c r="B86" s="151"/>
       <c r="C86" s="17"/>
       <c r="D86" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="E86" s="147" t="s">
-        <v>135</v>
-      </c>
-      <c r="F86" s="143"/>
-      <c r="G86" s="143"/>
-      <c r="H86" s="143"/>
+      <c r="E86" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="F86" s="149"/>
+      <c r="G86" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="H86" s="149"/>
       <c r="I86" s="17">
         <v>6</v>
       </c>
-      <c r="J86" s="143"/>
+      <c r="J86" s="149"/>
       <c r="K86" s="134">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="142" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" s="150" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17"/>
-      <c r="B87" s="143"/>
+      <c r="B87" s="151"/>
       <c r="C87" s="17"/>
       <c r="D87" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="E87" s="147" t="s">
-        <v>129</v>
-      </c>
-      <c r="F87" s="143"/>
-      <c r="G87" s="143"/>
-      <c r="H87" s="143"/>
+      <c r="E87" s="153" t="s">
+        <v>182</v>
+      </c>
+      <c r="F87" s="151"/>
+      <c r="G87" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="H87" s="151"/>
       <c r="I87" s="17">
         <v>6</v>
       </c>
-      <c r="J87" s="143"/>
+      <c r="J87" s="151"/>
       <c r="K87" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="142" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="150" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="17"/>
-      <c r="B88" s="143"/>
+      <c r="B88" s="151"/>
       <c r="C88" s="17"/>
       <c r="D88" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="E88" s="147" t="s">
-        <v>136</v>
-      </c>
-      <c r="F88" s="143"/>
-      <c r="G88" s="143"/>
-      <c r="H88" s="143"/>
+      <c r="E88" s="153" t="s">
+        <v>126</v>
+      </c>
+      <c r="F88" s="137"/>
+      <c r="G88" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="H88" s="151"/>
       <c r="I88" s="17">
         <v>6</v>
       </c>
-      <c r="J88" s="143"/>
+      <c r="J88" s="137"/>
       <c r="K88" s="134">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="142" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" s="150" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="17"/>
-      <c r="B89" s="143"/>
+      <c r="B89" s="151"/>
       <c r="C89" s="17"/>
       <c r="D89" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="E89" s="147" t="s">
-        <v>139</v>
-      </c>
-      <c r="F89" s="143"/>
-      <c r="G89" s="143"/>
-      <c r="H89" s="143"/>
+      <c r="E89" s="152" t="s">
+        <v>180</v>
+      </c>
+      <c r="F89" s="17"/>
+      <c r="G89" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="H89" s="151"/>
       <c r="I89" s="17">
         <v>6</v>
       </c>
-      <c r="J89" s="143"/>
+      <c r="J89" s="17"/>
       <c r="K89" s="134">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="142" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="150" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17"/>
-      <c r="B90" s="143"/>
+      <c r="B90" s="151"/>
       <c r="C90" s="17"/>
       <c r="D90" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="E90" s="147" t="s">
-        <v>137</v>
-      </c>
-      <c r="F90" s="143"/>
-      <c r="G90" s="143"/>
-      <c r="H90" s="143"/>
+      <c r="E90" s="152" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" s="17"/>
+      <c r="G90" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="H90" s="149"/>
       <c r="I90" s="17">
         <v>6</v>
       </c>
-      <c r="J90" s="143"/>
-      <c r="K90" s="134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J90" s="17"/>
+      <c r="K90" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="150" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="17"/>
-      <c r="B91" s="143"/>
+      <c r="B91" s="151"/>
       <c r="C91" s="17"/>
       <c r="D91" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="E91" s="147" t="s">
-        <v>138</v>
-      </c>
-      <c r="F91" s="143"/>
-      <c r="G91" s="143"/>
-      <c r="H91" s="143"/>
+      <c r="E91" s="153" t="s">
+        <v>177</v>
+      </c>
+      <c r="F91" s="151"/>
+      <c r="G91" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="H91" s="151"/>
       <c r="I91" s="17">
         <v>6</v>
       </c>
-      <c r="J91" s="143"/>
+      <c r="J91" s="151"/>
       <c r="K91" s="134">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="142" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" s="150" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17"/>
-      <c r="B92" s="143"/>
+      <c r="B92" s="151"/>
       <c r="C92" s="17"/>
       <c r="D92" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="E92" s="147" t="s">
-        <v>131</v>
-      </c>
-      <c r="F92" s="143"/>
-      <c r="G92" s="143"/>
-      <c r="H92" s="143"/>
+      <c r="E92" s="152" t="s">
+        <v>127</v>
+      </c>
+      <c r="F92" s="17"/>
+      <c r="G92" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="H92" s="149"/>
       <c r="I92" s="17">
         <v>6</v>
       </c>
-      <c r="J92" s="143"/>
-      <c r="K92" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J92" s="17"/>
+      <c r="K92" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="150" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="17"/>
-      <c r="B93" s="143"/>
+      <c r="B93" s="151"/>
       <c r="C93" s="17"/>
       <c r="D93" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="E93" s="147" t="s">
-        <v>130</v>
-      </c>
-      <c r="F93" s="143"/>
-      <c r="G93" s="143"/>
-      <c r="H93" s="143"/>
+      <c r="E93" s="153" t="s">
+        <v>181</v>
+      </c>
+      <c r="F93" s="151"/>
+      <c r="G93" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="H93" s="151"/>
       <c r="I93" s="17">
         <v>6</v>
       </c>
-      <c r="J93" s="143"/>
+      <c r="J93" s="151"/>
       <c r="K93" s="134">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="142" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" s="150" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17"/>
-      <c r="B94" s="143"/>
+      <c r="B94" s="151"/>
       <c r="C94" s="17"/>
       <c r="D94" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="E94" s="147" t="s">
-        <v>147</v>
-      </c>
-      <c r="F94" s="143"/>
-      <c r="G94" s="143"/>
-      <c r="H94" s="143"/>
+      <c r="E94" s="153" t="s">
+        <v>183</v>
+      </c>
+      <c r="F94" s="151"/>
+      <c r="G94" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="H94" s="151"/>
       <c r="I94" s="17">
         <v>6</v>
       </c>
-      <c r="J94" s="143"/>
+      <c r="J94" s="151"/>
       <c r="K94" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="142" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="150" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17"/>
-      <c r="B95" s="143"/>
+      <c r="B95" s="151"/>
       <c r="C95" s="17"/>
       <c r="D95" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="E95" s="147" t="s">
-        <v>148</v>
-      </c>
-      <c r="F95" s="143"/>
-      <c r="G95" s="143"/>
-      <c r="H95" s="143"/>
+      <c r="E95" s="152" t="s">
+        <v>125</v>
+      </c>
+      <c r="F95" s="17"/>
+      <c r="G95" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="H95" s="151"/>
       <c r="I95" s="17">
         <v>6</v>
       </c>
-      <c r="J95" s="143"/>
+      <c r="J95" s="17"/>
       <c r="K95" s="134">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F96" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G96" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H96" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="19"/>
-    </row>
-    <row r="97" spans="1:14" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="49" t="s">
+    <row r="96" spans="1:11" s="150" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="17"/>
+      <c r="B96" s="151"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="146" t="s">
+        <v>60</v>
+      </c>
+      <c r="E96" s="153" t="s">
+        <v>179</v>
+      </c>
+      <c r="F96" s="151"/>
+      <c r="G96" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="H96" s="151"/>
+      <c r="I96" s="17">
+        <v>6</v>
+      </c>
+      <c r="J96" s="151"/>
+      <c r="K96" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="150" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="17"/>
+      <c r="B97" s="151"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="146" t="s">
+        <v>60</v>
+      </c>
+      <c r="E97" s="153" t="s">
+        <v>178</v>
+      </c>
+      <c r="F97" s="151"/>
+      <c r="G97" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="H97" s="151"/>
+      <c r="I97" s="17">
+        <v>6</v>
+      </c>
+      <c r="J97" s="151"/>
+      <c r="K97" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="150" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="17"/>
+      <c r="B98" s="151"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="146"/>
+      <c r="E98" s="147"/>
+      <c r="F98" s="151"/>
+      <c r="G98" s="151"/>
+      <c r="H98" s="151"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="151"/>
+      <c r="K98" s="134"/>
+    </row>
+    <row r="99" spans="1:14" s="150" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="17"/>
+      <c r="B99" s="151"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="146"/>
+      <c r="E99" s="147"/>
+      <c r="F99" s="151"/>
+      <c r="G99" s="151"/>
+      <c r="H99" s="151"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="151"/>
+      <c r="K99" s="134"/>
+    </row>
+    <row r="100" spans="1:14" s="150" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="17"/>
+      <c r="B100" s="151"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="146"/>
+      <c r="E100" s="147"/>
+      <c r="F100" s="151"/>
+      <c r="G100" s="151"/>
+      <c r="H100" s="151"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="151"/>
+      <c r="K100" s="134"/>
+    </row>
+    <row r="101" spans="1:14" s="150" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="17"/>
+      <c r="B101" s="151"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="146"/>
+      <c r="E101" s="147"/>
+      <c r="F101" s="151"/>
+      <c r="G101" s="151"/>
+      <c r="H101" s="151"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="151"/>
+      <c r="K101" s="134"/>
+    </row>
+    <row r="102" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" s="146"/>
+      <c r="E102" s="147"/>
+      <c r="F102" s="151"/>
+      <c r="G102" s="151"/>
+      <c r="H102" s="151"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="151"/>
+      <c r="K102" s="134"/>
+    </row>
+    <row r="103" spans="1:14" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B97" s="50" t="s">
+      <c r="B103" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C97" s="51" t="s">
+      <c r="C103" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="52" t="s">
+      <c r="D103" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="F97" s="54" t="s">
+      <c r="E103" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F103" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="G97" s="55" t="s">
+      <c r="G103" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H97" s="56" t="s">
+      <c r="H103" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="I97" s="57" t="s">
+      <c r="I103" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="J97" s="58" t="s">
+      <c r="J103" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="K97" s="59" t="s">
+      <c r="K103" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="L97" s="60" t="s">
+      <c r="L103" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="M97" s="61" t="s">
+      <c r="M103" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="N97" s="62">
-        <f>SUM(K98:K122)</f>
+      <c r="N103" s="62">
+        <f>SUM(K104:K128)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:14" s="142" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B98" s="143" t="s">
+    <row r="104" spans="1:14" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" s="143" t="s">
         <v>92</v>
       </c>
-      <c r="C98" s="17"/>
-      <c r="D98" s="143"/>
-      <c r="E98" s="143"/>
-      <c r="F98" s="143"/>
-      <c r="G98" s="143"/>
-      <c r="H98" s="143"/>
-      <c r="I98" s="143"/>
-      <c r="J98" s="143"/>
-      <c r="K98" s="143"/>
-    </row>
-    <row r="99" spans="1:14" s="142" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="17"/>
-      <c r="B99" s="143"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E99" s="143" t="s">
-        <v>142</v>
-      </c>
-      <c r="F99" s="143">
-        <v>0</v>
-      </c>
-      <c r="G99" s="143" t="s">
-        <v>143</v>
-      </c>
-      <c r="H99" s="143"/>
-      <c r="I99" s="137">
-        <v>3</v>
-      </c>
-      <c r="J99" s="143"/>
-      <c r="K99" s="134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" s="142" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="17"/>
-      <c r="B100" s="143"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="143"/>
-      <c r="E100" s="143"/>
-      <c r="F100" s="143">
-        <v>1</v>
-      </c>
-      <c r="G100" s="143" t="s">
-        <v>144</v>
-      </c>
-      <c r="H100" s="143"/>
-      <c r="I100" s="143"/>
-      <c r="J100" s="143"/>
-      <c r="K100" s="143"/>
-    </row>
-    <row r="101" spans="1:14" s="142" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="17"/>
-      <c r="B101" s="143"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="143"/>
-      <c r="E101" s="143"/>
-      <c r="F101" s="143">
-        <v>2</v>
-      </c>
-      <c r="G101" s="143" t="s">
-        <v>145</v>
-      </c>
-      <c r="H101" s="143"/>
-      <c r="I101" s="143"/>
-      <c r="J101" s="143"/>
-      <c r="K101" s="143"/>
-    </row>
-    <row r="102" spans="1:14" s="142" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="17"/>
-      <c r="B102" s="143"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="143"/>
-      <c r="E102" s="143"/>
-      <c r="F102" s="143">
-        <v>3</v>
-      </c>
-      <c r="G102" s="143" t="s">
-        <v>146</v>
-      </c>
-      <c r="H102" s="143"/>
-      <c r="I102" s="143"/>
-      <c r="J102" s="143"/>
-      <c r="K102" s="143"/>
-    </row>
-    <row r="103" spans="1:14" s="142" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B103" s="143" t="s">
-        <v>164</v>
-      </c>
-      <c r="C103" s="17"/>
-      <c r="D103" s="143"/>
-      <c r="E103" s="143"/>
-      <c r="F103" s="143"/>
-      <c r="G103" s="143"/>
-      <c r="H103" s="143"/>
-      <c r="I103" s="143"/>
-      <c r="J103" s="143"/>
-      <c r="K103" s="143"/>
-    </row>
-    <row r="104" spans="1:14" s="142" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="17"/>
-      <c r="B104" s="143"/>
       <c r="C104" s="17"/>
-      <c r="D104" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E104" s="143" t="s">
-        <v>141</v>
-      </c>
+      <c r="D104" s="143"/>
+      <c r="E104" s="143"/>
       <c r="F104" s="143"/>
       <c r="G104" s="143"/>
       <c r="H104" s="143"/>
-      <c r="I104" s="17">
-        <v>3</v>
-      </c>
+      <c r="I104" s="143"/>
       <c r="J104" s="143"/>
-      <c r="K104" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K104" s="143"/>
+    </row>
+    <row r="105" spans="1:14" s="142" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17"/>
-      <c r="B105" s="16"/>
+      <c r="B105" s="143"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E105" s="143" t="s">
-        <v>110</v>
-      </c>
-      <c r="F105" s="17"/>
-      <c r="G105" s="143"/>
+        <v>135</v>
+      </c>
+      <c r="F105" s="143">
+        <v>0</v>
+      </c>
+      <c r="G105" s="143" t="s">
+        <v>136</v>
+      </c>
       <c r="H105" s="143"/>
-      <c r="I105" s="17">
-        <v>1</v>
-      </c>
-      <c r="J105" s="17"/>
+      <c r="I105" s="137">
+        <v>3</v>
+      </c>
+      <c r="J105" s="143"/>
       <c r="K105" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="142" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17"/>
-      <c r="B106" s="16"/>
+      <c r="B106" s="143"/>
       <c r="C106" s="17"/>
-      <c r="D106" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E106" s="143" t="s">
-        <v>107</v>
-      </c>
-      <c r="F106" s="17"/>
+      <c r="D106" s="143"/>
+      <c r="E106" s="143"/>
+      <c r="F106" s="143">
+        <v>1</v>
+      </c>
       <c r="G106" s="143" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="H106" s="143"/>
-      <c r="I106" s="17">
-        <v>4</v>
-      </c>
-      <c r="J106" s="17"/>
-      <c r="K106" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I106" s="143"/>
+      <c r="J106" s="143"/>
+      <c r="K106" s="143"/>
+    </row>
+    <row r="107" spans="1:14" s="142" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17"/>
-      <c r="B107" s="16"/>
+      <c r="B107" s="143"/>
       <c r="C107" s="17"/>
-      <c r="D107" s="149" t="s">
-        <v>60</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="149">
-        <v>5</v>
-      </c>
-      <c r="J107" s="16"/>
-      <c r="K107" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D107" s="143"/>
+      <c r="E107" s="143"/>
+      <c r="F107" s="143">
+        <v>2</v>
+      </c>
+      <c r="G107" s="143" t="s">
+        <v>138</v>
+      </c>
+      <c r="H107" s="143"/>
+      <c r="I107" s="143"/>
+      <c r="J107" s="143"/>
+      <c r="K107" s="143"/>
+    </row>
+    <row r="108" spans="1:14" s="142" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17"/>
-      <c r="B108" s="16"/>
+      <c r="B108" s="143"/>
       <c r="C108" s="17"/>
-      <c r="D108" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F108" s="17"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="17">
-        <v>5</v>
-      </c>
-      <c r="J108" s="17"/>
-      <c r="K108" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="17"/>
-      <c r="B109" s="16"/>
+      <c r="D108" s="143"/>
+      <c r="E108" s="143"/>
+      <c r="F108" s="143">
+        <v>3</v>
+      </c>
+      <c r="G108" s="143" t="s">
+        <v>139</v>
+      </c>
+      <c r="H108" s="143"/>
+      <c r="I108" s="143"/>
+      <c r="J108" s="143"/>
+      <c r="K108" s="143"/>
+    </row>
+    <row r="109" spans="1:14" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B109" s="143" t="s">
+        <v>156</v>
+      </c>
       <c r="C109" s="17"/>
-      <c r="D109" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F109" s="17"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="17">
-        <v>5</v>
-      </c>
-      <c r="J109" s="17"/>
-      <c r="K109" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D109" s="143"/>
+      <c r="E109" s="143"/>
+      <c r="F109" s="143"/>
+      <c r="G109" s="143"/>
+      <c r="H109" s="143"/>
+      <c r="I109" s="143"/>
+      <c r="J109" s="143"/>
+      <c r="K109" s="143"/>
+    </row>
+    <row r="110" spans="1:14" s="142" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17"/>
-      <c r="B110" s="145"/>
+      <c r="B110" s="143"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E110" s="145" t="s">
-        <v>152</v>
-      </c>
-      <c r="F110" s="17"/>
-      <c r="G110" s="145"/>
-      <c r="H110" s="145"/>
+      <c r="E110" s="143" t="s">
+        <v>134</v>
+      </c>
+      <c r="F110" s="143"/>
+      <c r="G110" s="143"/>
+      <c r="H110" s="143"/>
       <c r="I110" s="17">
-        <v>5</v>
-      </c>
-      <c r="J110" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="J110" s="143"/>
       <c r="K110" s="134">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="17"/>
-      <c r="B111" s="145"/>
+      <c r="B111" s="16"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E111" s="145" t="s">
-        <v>154</v>
+      <c r="E111" s="143" t="s">
+        <v>110</v>
       </c>
       <c r="F111" s="17"/>
-      <c r="G111" s="145"/>
-      <c r="H111" s="145"/>
+      <c r="G111" s="143"/>
+      <c r="H111" s="143"/>
       <c r="I111" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J111" s="17"/>
       <c r="K111" s="134">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="17"/>
-      <c r="B112" s="145"/>
+      <c r="B112" s="16"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E112" s="145" t="s">
-        <v>153</v>
+      <c r="E112" s="143" t="s">
+        <v>107</v>
       </c>
       <c r="F112" s="17"/>
-      <c r="G112" s="145"/>
-      <c r="H112" s="145"/>
+      <c r="G112" s="143" t="s">
+        <v>108</v>
+      </c>
+      <c r="H112" s="143"/>
       <c r="I112" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J112" s="17"/>
       <c r="K112" s="134">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="17"/>
-      <c r="B113" s="145"/>
+      <c r="B113" s="16"/>
       <c r="C113" s="17"/>
-      <c r="D113" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E113" s="145" t="s">
-        <v>155</v>
-      </c>
-      <c r="F113" s="17"/>
-      <c r="G113" s="145"/>
-      <c r="H113" s="145"/>
-      <c r="I113" s="17">
+      <c r="D113" s="148" t="s">
+        <v>60</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="148">
         <v>5</v>
       </c>
-      <c r="J113" s="17"/>
-      <c r="K113" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A114" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>33</v>
-      </c>
+      <c r="J113" s="16"/>
+      <c r="K113" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="17"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="17"/>
       <c r="D114" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F114" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G114" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H114" s="16" t="s">
-        <v>33</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="F114" s="17"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
       <c r="I114" s="17">
         <v>5</v>
       </c>
@@ -4115,28 +4118,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="17"/>
-      <c r="B115" s="145"/>
+      <c r="B115" s="16"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E115" s="145" t="s">
-        <v>157</v>
+      <c r="E115" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="F115" s="17"/>
-      <c r="G115" s="145"/>
-      <c r="H115" s="145"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
       <c r="I115" s="17">
         <v>5</v>
       </c>
       <c r="J115" s="17"/>
-      <c r="K115" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K115" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17"/>
       <c r="B116" s="145"/>
       <c r="C116" s="17"/>
@@ -4144,7 +4147,7 @@
         <v>60</v>
       </c>
       <c r="E116" s="145" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F116" s="17"/>
       <c r="G116" s="145"/>
@@ -4157,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17"/>
       <c r="B117" s="145"/>
       <c r="C117" s="17"/>
@@ -4165,7 +4168,7 @@
         <v>60</v>
       </c>
       <c r="E117" s="145" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="F117" s="17"/>
       <c r="G117" s="145"/>
@@ -4178,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="17"/>
       <c r="B118" s="145"/>
       <c r="C118" s="17"/>
@@ -4186,7 +4189,7 @@
         <v>60</v>
       </c>
       <c r="E118" s="145" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="F118" s="17"/>
       <c r="G118" s="145"/>
@@ -4199,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17"/>
       <c r="B119" s="145"/>
       <c r="C119" s="17"/>
@@ -4207,7 +4210,7 @@
         <v>60</v>
       </c>
       <c r="E119" s="145" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F119" s="17"/>
       <c r="G119" s="145"/>
@@ -4220,501 +4223,513 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="17"/>
-      <c r="B120" s="145"/>
-      <c r="C120" s="17"/>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="D120" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E120" s="145" t="s">
-        <v>162</v>
-      </c>
-      <c r="F120" s="17"/>
-      <c r="G120" s="145"/>
-      <c r="H120" s="145"/>
+      <c r="E120" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F120" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G120" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H120" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="I120" s="17">
         <v>5</v>
       </c>
       <c r="J120" s="17"/>
-      <c r="K120" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K120" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="17"/>
       <c r="B121" s="145"/>
       <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="145"/>
+      <c r="D121" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E121" s="145" t="s">
+        <v>149</v>
+      </c>
       <c r="F121" s="17"/>
       <c r="G121" s="145"/>
       <c r="H121" s="145"/>
-      <c r="I121" s="17"/>
+      <c r="I121" s="17">
+        <v>5</v>
+      </c>
       <c r="J121" s="17"/>
-      <c r="K121" s="134"/>
-    </row>
-    <row r="122" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>33</v>
-      </c>
+      <c r="K121" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="17"/>
+      <c r="B122" s="145"/>
+      <c r="C122" s="17"/>
       <c r="D122" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F122" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G122" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H122" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I122" s="17"/>
+        <v>60</v>
+      </c>
+      <c r="E122" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="F122" s="17"/>
+      <c r="G122" s="145"/>
+      <c r="H122" s="145"/>
+      <c r="I122" s="17">
+        <v>5</v>
+      </c>
       <c r="J122" s="17"/>
-      <c r="K122" s="19"/>
-    </row>
-    <row r="123" spans="1:14" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="B123" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="C123" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E123" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="F123" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="G123" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="H123" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="I123" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="J123" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="K123" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="L123" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="M123" s="75" t="s">
+      <c r="K122" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="17"/>
+      <c r="B123" s="145"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E123" s="145" t="s">
+        <v>151</v>
+      </c>
+      <c r="F123" s="17"/>
+      <c r="G123" s="145"/>
+      <c r="H123" s="145"/>
+      <c r="I123" s="17">
         <v>5</v>
       </c>
-      <c r="N123" s="76">
-        <f>SUM(K124:K154)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B124" s="145" t="s">
-        <v>92</v>
-      </c>
+      <c r="J123" s="17"/>
+      <c r="K123" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="17"/>
+      <c r="B124" s="145"/>
       <c r="C124" s="17"/>
-      <c r="D124" s="145"/>
-      <c r="E124" s="145"/>
-      <c r="F124" s="145"/>
+      <c r="D124" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E124" s="145" t="s">
+        <v>152</v>
+      </c>
+      <c r="F124" s="17"/>
       <c r="G124" s="145"/>
       <c r="H124" s="145"/>
-      <c r="I124" s="145"/>
-      <c r="J124" s="145"/>
-      <c r="K124" s="145"/>
-    </row>
-    <row r="125" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I124" s="17">
+        <v>5</v>
+      </c>
+      <c r="J124" s="17"/>
+      <c r="K124" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="17"/>
       <c r="B125" s="145"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E125" s="145" t="s">
-        <v>142</v>
-      </c>
-      <c r="F125" s="145">
-        <v>0</v>
-      </c>
-      <c r="G125" s="145" t="s">
-        <v>143</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="F125" s="17"/>
+      <c r="G125" s="145"/>
       <c r="H125" s="145"/>
-      <c r="I125" s="137">
-        <v>3</v>
-      </c>
-      <c r="J125" s="145"/>
+      <c r="I125" s="17">
+        <v>5</v>
+      </c>
+      <c r="J125" s="17"/>
       <c r="K125" s="134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="17"/>
       <c r="B126" s="145"/>
       <c r="C126" s="17"/>
-      <c r="D126" s="145"/>
-      <c r="E126" s="145"/>
-      <c r="F126" s="145">
-        <v>1</v>
-      </c>
-      <c r="G126" s="145" t="s">
-        <v>144</v>
-      </c>
+      <c r="D126" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E126" s="145" t="s">
+        <v>154</v>
+      </c>
+      <c r="F126" s="17"/>
+      <c r="G126" s="145"/>
       <c r="H126" s="145"/>
-      <c r="I126" s="137"/>
-      <c r="J126" s="145"/>
-      <c r="K126" s="145"/>
-    </row>
-    <row r="127" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I126" s="17">
+        <v>5</v>
+      </c>
+      <c r="J126" s="17"/>
+      <c r="K126" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="17"/>
       <c r="B127" s="145"/>
       <c r="C127" s="17"/>
-      <c r="D127" s="145"/>
+      <c r="D127" s="17"/>
       <c r="E127" s="145"/>
-      <c r="F127" s="145">
+      <c r="F127" s="17"/>
+      <c r="G127" s="145"/>
+      <c r="H127" s="145"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="134"/>
+    </row>
+    <row r="128" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F128" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G128" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H128" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="19"/>
+    </row>
+    <row r="129" spans="1:14" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F129" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G127" s="145" t="s">
-        <v>145</v>
-      </c>
-      <c r="H127" s="145"/>
-      <c r="I127" s="137"/>
-      <c r="J127" s="145"/>
-      <c r="K127" s="145"/>
-    </row>
-    <row r="128" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="17"/>
-      <c r="B128" s="145"/>
-      <c r="C128" s="17"/>
-      <c r="D128" s="145"/>
-      <c r="E128" s="145"/>
-      <c r="F128" s="145">
+      <c r="G129" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="H129" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="I129" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="G128" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="H128" s="145"/>
-      <c r="I128" s="137"/>
-      <c r="J128" s="145"/>
-      <c r="K128" s="145"/>
-    </row>
-    <row r="129" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="17"/>
-      <c r="B129" s="145"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="145"/>
-      <c r="E129" s="145"/>
-      <c r="F129" s="145"/>
-      <c r="G129" s="145"/>
-      <c r="H129" s="145"/>
-      <c r="I129" s="137"/>
-      <c r="J129" s="145"/>
-      <c r="K129" s="145"/>
-    </row>
-    <row r="130" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="17"/>
-      <c r="B130" s="145"/>
+      <c r="J129" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="K129" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="L129" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="M129" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="N129" s="76">
+        <f>SUM(K130:K160)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B130" s="145" t="s">
+        <v>92</v>
+      </c>
       <c r="C130" s="17"/>
-      <c r="D130" s="137" t="s">
-        <v>52</v>
-      </c>
-      <c r="E130" s="145" t="s">
-        <v>174</v>
-      </c>
-      <c r="F130" s="145">
-        <v>0</v>
-      </c>
-      <c r="G130" s="145" t="s">
-        <v>175</v>
-      </c>
+      <c r="D130" s="145"/>
+      <c r="E130" s="145"/>
+      <c r="F130" s="145"/>
+      <c r="G130" s="145"/>
       <c r="H130" s="145"/>
-      <c r="I130" s="137">
-        <v>3</v>
-      </c>
+      <c r="I130" s="145"/>
       <c r="J130" s="145"/>
-      <c r="K130" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K130" s="145"/>
+    </row>
+    <row r="131" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="17"/>
       <c r="B131" s="145"/>
       <c r="C131" s="17"/>
-      <c r="D131" s="145"/>
-      <c r="E131" s="145"/>
+      <c r="D131" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E131" s="145" t="s">
+        <v>135</v>
+      </c>
       <c r="F131" s="145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" s="145" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="H131" s="145"/>
-      <c r="I131" s="145"/>
+      <c r="I131" s="137">
+        <v>3</v>
+      </c>
       <c r="J131" s="145"/>
-      <c r="K131" s="145"/>
-    </row>
-    <row r="132" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K131" s="134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="17"/>
       <c r="B132" s="145"/>
       <c r="C132" s="17"/>
       <c r="D132" s="145"/>
       <c r="E132" s="145"/>
       <c r="F132" s="145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G132" s="145" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="H132" s="145"/>
-      <c r="I132" s="145"/>
+      <c r="I132" s="137"/>
       <c r="J132" s="145"/>
       <c r="K132" s="145"/>
     </row>
-    <row r="133" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="17"/>
       <c r="B133" s="145"/>
       <c r="C133" s="17"/>
       <c r="D133" s="145"/>
       <c r="E133" s="145"/>
       <c r="F133" s="145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G133" s="145" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="H133" s="145"/>
-      <c r="I133" s="145"/>
+      <c r="I133" s="137"/>
       <c r="J133" s="145"/>
       <c r="K133" s="145"/>
     </row>
-    <row r="134" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
       <c r="B134" s="145"/>
       <c r="C134" s="17"/>
       <c r="D134" s="145"/>
       <c r="E134" s="145"/>
-      <c r="F134" s="145"/>
-      <c r="G134" s="145"/>
+      <c r="F134" s="145">
+        <v>3</v>
+      </c>
+      <c r="G134" s="145" t="s">
+        <v>139</v>
+      </c>
       <c r="H134" s="145"/>
-      <c r="I134" s="145"/>
+      <c r="I134" s="137"/>
       <c r="J134" s="145"/>
       <c r="K134" s="145"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="17"/>
-      <c r="B135" s="16"/>
+      <c r="B135" s="145"/>
       <c r="C135" s="17"/>
-      <c r="D135" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E135" s="143" t="s">
-        <v>110</v>
-      </c>
-      <c r="F135" s="17"/>
-      <c r="G135" s="143"/>
-      <c r="H135" s="143"/>
-      <c r="I135" s="17">
-        <v>1</v>
-      </c>
-      <c r="J135" s="17"/>
-      <c r="K135" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D135" s="145"/>
+      <c r="E135" s="145"/>
+      <c r="F135" s="145"/>
+      <c r="G135" s="145"/>
+      <c r="H135" s="145"/>
+      <c r="I135" s="137"/>
+      <c r="J135" s="145"/>
+      <c r="K135" s="145"/>
+    </row>
+    <row r="136" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="17"/>
-      <c r="B136" s="16"/>
+      <c r="B136" s="145"/>
       <c r="C136" s="17"/>
-      <c r="D136" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E136" s="143" t="s">
-        <v>141</v>
-      </c>
-      <c r="F136" s="143"/>
-      <c r="G136" s="143"/>
-      <c r="H136" s="143"/>
-      <c r="I136" s="17">
+      <c r="D136" s="137" t="s">
+        <v>52</v>
+      </c>
+      <c r="E136" s="145" t="s">
+        <v>166</v>
+      </c>
+      <c r="F136" s="145">
+        <v>0</v>
+      </c>
+      <c r="G136" s="145" t="s">
+        <v>167</v>
+      </c>
+      <c r="H136" s="145"/>
+      <c r="I136" s="137">
         <v>3</v>
       </c>
-      <c r="J136" s="143"/>
+      <c r="J136" s="145"/>
       <c r="K136" s="134">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="17"/>
-      <c r="B137" s="16"/>
+      <c r="B137" s="145"/>
       <c r="C137" s="17"/>
-      <c r="D137" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E137" s="143" t="s">
-        <v>107</v>
-      </c>
-      <c r="F137" s="17"/>
-      <c r="G137" s="143" t="s">
-        <v>108</v>
-      </c>
-      <c r="H137" s="143"/>
-      <c r="I137" s="17">
-        <v>4</v>
-      </c>
-      <c r="J137" s="17"/>
-      <c r="K137" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D137" s="145"/>
+      <c r="E137" s="145"/>
+      <c r="F137" s="145">
+        <v>1</v>
+      </c>
+      <c r="G137" s="145" t="s">
+        <v>168</v>
+      </c>
+      <c r="H137" s="145"/>
+      <c r="I137" s="145"/>
+      <c r="J137" s="145"/>
+      <c r="K137" s="145"/>
+    </row>
+    <row r="138" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="17"/>
       <c r="B138" s="145"/>
       <c r="C138" s="17"/>
-      <c r="D138" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E138" s="145" t="s">
-        <v>166</v>
-      </c>
-      <c r="F138" s="17"/>
-      <c r="G138" s="145"/>
+      <c r="D138" s="145"/>
+      <c r="E138" s="145"/>
+      <c r="F138" s="145">
+        <v>2</v>
+      </c>
+      <c r="G138" s="145" t="s">
+        <v>169</v>
+      </c>
       <c r="H138" s="145"/>
-      <c r="I138" s="17">
-        <v>5</v>
-      </c>
-      <c r="J138" s="17"/>
-      <c r="K138" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I138" s="145"/>
+      <c r="J138" s="145"/>
+      <c r="K138" s="145"/>
+    </row>
+    <row r="139" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="17"/>
-      <c r="B139" s="16"/>
+      <c r="B139" s="145"/>
       <c r="C139" s="17"/>
-      <c r="D139" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F139" s="17"/>
-      <c r="G139" s="16"/>
-      <c r="H139" s="16"/>
-      <c r="I139" s="17">
-        <v>5</v>
-      </c>
-      <c r="J139" s="17"/>
-      <c r="K139" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D139" s="145"/>
+      <c r="E139" s="145"/>
+      <c r="F139" s="145">
+        <v>3</v>
+      </c>
+      <c r="G139" s="145" t="s">
+        <v>170</v>
+      </c>
+      <c r="H139" s="145"/>
+      <c r="I139" s="145"/>
+      <c r="J139" s="145"/>
+      <c r="K139" s="145"/>
+    </row>
+    <row r="140" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="17"/>
       <c r="B140" s="145"/>
       <c r="C140" s="17"/>
-      <c r="D140" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E140" s="145" t="s">
-        <v>168</v>
-      </c>
-      <c r="F140" s="17"/>
+      <c r="D140" s="145"/>
+      <c r="E140" s="145"/>
+      <c r="F140" s="145"/>
       <c r="G140" s="145"/>
       <c r="H140" s="145"/>
-      <c r="I140" s="17">
-        <v>5</v>
-      </c>
-      <c r="J140" s="17"/>
-      <c r="K140" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I140" s="145"/>
+      <c r="J140" s="145"/>
+      <c r="K140" s="145"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="17"/>
-      <c r="B141" s="145"/>
+      <c r="B141" s="16"/>
       <c r="C141" s="17"/>
       <c r="D141" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E141" s="145" t="s">
-        <v>169</v>
+      <c r="E141" s="143" t="s">
+        <v>110</v>
       </c>
       <c r="F141" s="17"/>
-      <c r="G141" s="145"/>
-      <c r="H141" s="145"/>
+      <c r="G141" s="143"/>
+      <c r="H141" s="143"/>
       <c r="I141" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J141" s="17"/>
       <c r="K141" s="134">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="17"/>
-      <c r="B142" s="145"/>
+      <c r="B142" s="16"/>
       <c r="C142" s="17"/>
       <c r="D142" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E142" s="145" t="s">
-        <v>170</v>
-      </c>
-      <c r="F142" s="17"/>
-      <c r="G142" s="145"/>
-      <c r="H142" s="145"/>
+      <c r="E142" s="143" t="s">
+        <v>134</v>
+      </c>
+      <c r="F142" s="143"/>
+      <c r="G142" s="143"/>
+      <c r="H142" s="143"/>
       <c r="I142" s="17">
-        <v>5</v>
-      </c>
-      <c r="J142" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="J142" s="143"/>
       <c r="K142" s="134">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="17"/>
-      <c r="B143" s="145"/>
+      <c r="B143" s="16"/>
       <c r="C143" s="17"/>
       <c r="D143" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E143" s="145" t="s">
-        <v>171</v>
+      <c r="E143" s="143" t="s">
+        <v>107</v>
       </c>
       <c r="F143" s="17"/>
-      <c r="G143" s="145"/>
-      <c r="H143" s="145"/>
+      <c r="G143" s="143" t="s">
+        <v>108</v>
+      </c>
+      <c r="H143" s="143"/>
       <c r="I143" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J143" s="17"/>
       <c r="K143" s="134">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="17"/>
       <c r="B144" s="145"/>
       <c r="C144" s="17"/>
@@ -4722,7 +4737,7 @@
         <v>60</v>
       </c>
       <c r="E144" s="145" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="F144" s="17"/>
       <c r="G144" s="145"/>
@@ -4735,28 +4750,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="17"/>
-      <c r="B145" s="145"/>
+      <c r="B145" s="16"/>
       <c r="C145" s="17"/>
       <c r="D145" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E145" s="145" t="s">
-        <v>173</v>
+      <c r="E145" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="F145" s="17"/>
-      <c r="G145" s="145"/>
-      <c r="H145" s="145"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
       <c r="I145" s="17">
         <v>5</v>
       </c>
       <c r="J145" s="17"/>
-      <c r="K145" s="134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K145" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="17"/>
       <c r="B146" s="145"/>
       <c r="C146" s="17"/>
@@ -4764,7 +4779,7 @@
         <v>60</v>
       </c>
       <c r="E146" s="145" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="F146" s="17"/>
       <c r="G146" s="145"/>
@@ -4777,7 +4792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="17"/>
       <c r="B147" s="145"/>
       <c r="C147" s="17"/>
@@ -4785,20 +4800,20 @@
         <v>60</v>
       </c>
       <c r="E147" s="145" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="F147" s="17"/>
       <c r="G147" s="145"/>
       <c r="H147" s="145"/>
       <c r="I147" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J147" s="17"/>
       <c r="K147" s="134">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="17"/>
       <c r="B148" s="145"/>
       <c r="C148" s="17"/>
@@ -4806,7 +4821,7 @@
         <v>60</v>
       </c>
       <c r="E148" s="145" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="F148" s="17"/>
       <c r="G148" s="145"/>
@@ -4816,335 +4831,335 @@
       </c>
       <c r="J148" s="17"/>
       <c r="K148" s="134">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="17"/>
       <c r="B149" s="145"/>
       <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="145"/>
+      <c r="D149" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E149" s="145" t="s">
+        <v>163</v>
+      </c>
       <c r="F149" s="17"/>
       <c r="G149" s="145"/>
       <c r="H149" s="145"/>
-      <c r="I149" s="17"/>
+      <c r="I149" s="17">
+        <v>5</v>
+      </c>
       <c r="J149" s="17"/>
-      <c r="K149" s="134"/>
-    </row>
-    <row r="150" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K149" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="17"/>
       <c r="B150" s="145"/>
       <c r="C150" s="17"/>
       <c r="D150" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E150" s="147" t="s">
-        <v>120</v>
-      </c>
-      <c r="F150" s="17">
-        <v>0</v>
-      </c>
-      <c r="G150" s="147" t="s">
-        <v>121</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E150" s="145" t="s">
+        <v>164</v>
+      </c>
+      <c r="F150" s="17"/>
+      <c r="G150" s="145"/>
       <c r="H150" s="145"/>
       <c r="I150" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J150" s="17"/>
       <c r="K150" s="134">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="17"/>
       <c r="B151" s="145"/>
       <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="147"/>
-      <c r="F151" s="17">
-        <v>1</v>
-      </c>
-      <c r="G151" s="147" t="s">
-        <v>122</v>
-      </c>
+      <c r="D151" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E151" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="F151" s="17"/>
+      <c r="G151" s="145"/>
       <c r="H151" s="145"/>
-      <c r="I151" s="17"/>
+      <c r="I151" s="17">
+        <v>5</v>
+      </c>
       <c r="J151" s="17"/>
-      <c r="K151" s="134"/>
-    </row>
-    <row r="152" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K151" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="17"/>
       <c r="B152" s="145"/>
       <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="147"/>
-      <c r="F152" s="17">
-        <v>2</v>
-      </c>
-      <c r="G152" s="147" t="s">
-        <v>123</v>
-      </c>
+      <c r="D152" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E152" s="145" t="s">
+        <v>172</v>
+      </c>
+      <c r="F152" s="17"/>
+      <c r="G152" s="145"/>
       <c r="H152" s="145"/>
-      <c r="I152" s="17"/>
+      <c r="I152" s="17">
+        <v>5</v>
+      </c>
       <c r="J152" s="17"/>
-      <c r="K152" s="134"/>
-    </row>
-    <row r="153" spans="1:14" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K152" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="17"/>
       <c r="B153" s="145"/>
       <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
-      <c r="E153" s="147"/>
-      <c r="F153" s="17">
-        <v>3</v>
-      </c>
-      <c r="G153" s="147" t="s">
-        <v>124</v>
-      </c>
+      <c r="D153" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E153" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="F153" s="17"/>
+      <c r="G153" s="145"/>
       <c r="H153" s="145"/>
-      <c r="I153" s="17"/>
+      <c r="I153" s="17">
+        <v>4</v>
+      </c>
       <c r="J153" s="17"/>
-      <c r="K153" s="134"/>
-    </row>
-    <row r="154" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B154" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>33</v>
-      </c>
+      <c r="K153" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="17"/>
+      <c r="B154" s="145"/>
+      <c r="C154" s="17"/>
       <c r="D154" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E154" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F154" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G154" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H154" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I154" s="17"/>
+        <v>60</v>
+      </c>
+      <c r="E154" s="145" t="s">
+        <v>173</v>
+      </c>
+      <c r="F154" s="17"/>
+      <c r="G154" s="145"/>
+      <c r="H154" s="145"/>
+      <c r="I154" s="17">
+        <v>5</v>
+      </c>
       <c r="J154" s="17"/>
-      <c r="K154" s="19"/>
-    </row>
-    <row r="155" spans="1:14" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="B155" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="C155" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="D155" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E155" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="F155" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="G155" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="H155" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="I155" s="85" t="s">
-        <v>3</v>
-      </c>
-      <c r="J155" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="K155" s="87" t="s">
-        <v>4</v>
-      </c>
-      <c r="L155" s="88" t="s">
-        <v>40</v>
-      </c>
-      <c r="M155" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="N155" s="90">
-        <f>SUM(K156:K161)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A156" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B156" s="16" t="s">
-        <v>89</v>
-      </c>
+      <c r="K154" s="134">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="17"/>
+      <c r="B155" s="145"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="145"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="145"/>
+      <c r="H155" s="145"/>
+      <c r="I155" s="17"/>
+      <c r="J155" s="17"/>
+      <c r="K155" s="134"/>
+    </row>
+    <row r="156" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="17"/>
+      <c r="B156" s="145"/>
       <c r="C156" s="17"/>
       <c r="D156" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E156" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F156" s="17"/>
-      <c r="G156" s="16"/>
-      <c r="H156" s="16"/>
+        <v>52</v>
+      </c>
+      <c r="E156" s="147" t="s">
+        <v>120</v>
+      </c>
+      <c r="F156" s="17">
+        <v>0</v>
+      </c>
+      <c r="G156" s="147" t="s">
+        <v>121</v>
+      </c>
+      <c r="H156" s="145"/>
       <c r="I156" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J156" s="17"/>
-      <c r="K156" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K156" s="134">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="17"/>
-      <c r="B157" s="16"/>
+      <c r="B157" s="145"/>
       <c r="C157" s="17"/>
       <c r="D157" s="17"/>
-      <c r="E157" s="16"/>
-      <c r="F157" s="17"/>
-      <c r="G157" s="16"/>
-      <c r="H157" s="16"/>
+      <c r="E157" s="147"/>
+      <c r="F157" s="17">
+        <v>1</v>
+      </c>
+      <c r="G157" s="147" t="s">
+        <v>122</v>
+      </c>
+      <c r="H157" s="145"/>
       <c r="I157" s="17"/>
       <c r="J157" s="17"/>
-      <c r="K157" s="19"/>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K157" s="134"/>
+    </row>
+    <row r="158" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="17"/>
-      <c r="B158" s="16"/>
+      <c r="B158" s="145"/>
       <c r="C158" s="17"/>
       <c r="D158" s="17"/>
-      <c r="E158" s="16"/>
-      <c r="F158" s="17"/>
-      <c r="G158" s="16"/>
-      <c r="H158" s="16"/>
+      <c r="E158" s="147"/>
+      <c r="F158" s="17">
+        <v>2</v>
+      </c>
+      <c r="G158" s="147" t="s">
+        <v>123</v>
+      </c>
+      <c r="H158" s="145"/>
       <c r="I158" s="17"/>
       <c r="J158" s="17"/>
-      <c r="K158" s="19"/>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K158" s="134"/>
+    </row>
+    <row r="159" spans="1:11" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="17"/>
-      <c r="B159" s="16"/>
+      <c r="B159" s="145"/>
       <c r="C159" s="17"/>
-      <c r="D159" s="16"/>
-      <c r="E159" s="16"/>
-      <c r="F159" s="16"/>
-      <c r="G159" s="16"/>
-      <c r="H159" s="16"/>
-      <c r="I159" s="16"/>
-      <c r="J159" s="16"/>
-      <c r="K159" s="16"/>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A160" s="17"/>
-      <c r="B160" s="16"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="16"/>
-      <c r="F160" s="17"/>
-      <c r="G160" s="16"/>
-      <c r="H160" s="16"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="147"/>
+      <c r="F159" s="17">
+        <v>3</v>
+      </c>
+      <c r="G159" s="147" t="s">
+        <v>124</v>
+      </c>
+      <c r="H159" s="145"/>
+      <c r="I159" s="17"/>
+      <c r="J159" s="17"/>
+      <c r="K159" s="134"/>
+    </row>
+    <row r="160" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B160" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D160" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F160" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G160" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H160" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="I160" s="17"/>
       <c r="J160" s="17"/>
       <c r="K160" s="19"/>
     </row>
-    <row r="161" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B161" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D161" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E161" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F161" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G161" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H161" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I161" s="17"/>
-      <c r="J161" s="17"/>
-      <c r="K161" s="19"/>
-    </row>
-    <row r="162" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="91" t="s">
+    <row r="161" spans="1:14" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B162" s="92" t="s">
+      <c r="B161" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C162" s="93" t="s">
+      <c r="C161" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="D162" s="94" t="s">
+      <c r="D161" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="E162" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="F162" s="96" t="s">
+      <c r="E161" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="F161" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="G162" s="97" t="s">
+      <c r="G161" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="H162" s="98" t="s">
+      <c r="H161" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="I162" s="99" t="s">
+      <c r="I161" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="J162" s="100" t="s">
+      <c r="J161" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="K162" s="101" t="s">
+      <c r="K161" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="L162" s="102" t="s">
-        <v>41</v>
-      </c>
-      <c r="M162" s="103" t="s">
+      <c r="L161" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="M161" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="N162" s="104">
-        <f>SUM(K163:K169)</f>
-        <v>0</v>
+      <c r="N161" s="90">
+        <f>SUM(K162:K167)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A162" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F162" s="17"/>
+      <c r="G162" s="16"/>
+      <c r="H162" s="16"/>
+      <c r="I162" s="17">
+        <v>2</v>
+      </c>
+      <c r="J162" s="17"/>
+      <c r="K162" s="19">
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="17"/>
       <c r="B163" s="16"/>
       <c r="C163" s="17"/>
-      <c r="D163" s="16"/>
+      <c r="D163" s="17"/>
       <c r="E163" s="16"/>
-      <c r="F163" s="16"/>
+      <c r="F163" s="17"/>
       <c r="G163" s="16"/>
       <c r="H163" s="16"/>
-      <c r="I163" s="16"/>
-      <c r="J163" s="16"/>
-      <c r="K163" s="16"/>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="19"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="17"/>
@@ -5163,14 +5178,14 @@
       <c r="A165" s="17"/>
       <c r="B165" s="16"/>
       <c r="C165" s="17"/>
-      <c r="D165" s="17"/>
+      <c r="D165" s="16"/>
       <c r="E165" s="16"/>
-      <c r="F165" s="17"/>
+      <c r="F165" s="16"/>
       <c r="G165" s="16"/>
       <c r="H165" s="16"/>
-      <c r="I165" s="17"/>
-      <c r="J165" s="17"/>
-      <c r="K165" s="19"/>
+      <c r="I165" s="16"/>
+      <c r="J165" s="16"/>
+      <c r="K165" s="16"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="17"/>
@@ -5185,118 +5200,118 @@
       <c r="J166" s="17"/>
       <c r="K166" s="19"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A167" s="17"/>
-      <c r="B167" s="16"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="16"/>
-      <c r="F167" s="17"/>
-      <c r="G167" s="16"/>
-      <c r="H167" s="16"/>
+    <row r="167" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B167" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E167" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F167" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G167" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H167" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="I167" s="17"/>
       <c r="J167" s="17"/>
       <c r="K167" s="19"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A168" s="17"/>
-      <c r="B168" s="16"/>
-      <c r="C168" s="17"/>
-      <c r="D168" s="17"/>
-      <c r="E168" s="16"/>
-      <c r="F168" s="17"/>
-      <c r="G168" s="16"/>
-      <c r="H168" s="16"/>
-      <c r="I168" s="17"/>
-      <c r="J168" s="17"/>
-      <c r="K168" s="19"/>
-    </row>
-    <row r="169" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B169" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C169" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E169" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F169" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G169" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H169" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I169" s="17"/>
-      <c r="J169" s="17"/>
-      <c r="K169" s="19"/>
-    </row>
-    <row r="170" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="105" t="s">
+    <row r="168" spans="1:14" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B170" s="106" t="s">
+      <c r="B168" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="C170" s="107" t="s">
+      <c r="C168" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D170" s="108" t="s">
+      <c r="D168" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E170" s="109" t="s">
-        <v>1</v>
-      </c>
-      <c r="F170" s="110" t="s">
+      <c r="E168" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F168" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="G170" s="111" t="s">
+      <c r="G168" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="H170" s="112" t="s">
+      <c r="H168" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="I170" s="113" t="s">
+      <c r="I168" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="J170" s="114" t="s">
+      <c r="J168" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="K170" s="115" t="s">
+      <c r="K168" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="L170" s="116" t="s">
-        <v>42</v>
-      </c>
-      <c r="M170" s="117" t="s">
+      <c r="L168" s="102" t="s">
+        <v>41</v>
+      </c>
+      <c r="M168" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="N170" s="118">
-        <f>SUM(K179:K185)</f>
+      <c r="N168" s="104">
+        <f>SUM(K169:K175)</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A169" s="17"/>
+      <c r="B169" s="16"/>
+      <c r="C169" s="17"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="16"/>
+      <c r="F169" s="16"/>
+      <c r="G169" s="16"/>
+      <c r="H169" s="16"/>
+      <c r="I169" s="16"/>
+      <c r="J169" s="16"/>
+      <c r="K169" s="16"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A170" s="17"/>
+      <c r="B170" s="16"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="16"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="16"/>
+      <c r="H170" s="16"/>
+      <c r="I170" s="17"/>
+      <c r="J170" s="17"/>
+      <c r="K170" s="19"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="17"/>
       <c r="B171" s="16"/>
       <c r="C171" s="17"/>
-      <c r="D171" s="16"/>
+      <c r="D171" s="17"/>
       <c r="E171" s="16"/>
-      <c r="F171" s="16"/>
+      <c r="F171" s="17"/>
       <c r="G171" s="16"/>
       <c r="H171" s="16"/>
-      <c r="I171" s="16"/>
-      <c r="J171" s="16"/>
-      <c r="K171" s="16"/>
+      <c r="I171" s="17"/>
+      <c r="J171" s="17"/>
+      <c r="K171" s="19"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="17"/>
@@ -5328,340 +5343,456 @@
       <c r="A174" s="17"/>
       <c r="B174" s="16"/>
       <c r="C174" s="17"/>
-      <c r="D174" s="16"/>
+      <c r="D174" s="17"/>
       <c r="E174" s="16"/>
-      <c r="F174" s="16"/>
+      <c r="F174" s="17"/>
       <c r="G174" s="16"/>
       <c r="H174" s="16"/>
-      <c r="I174" s="16"/>
-      <c r="J174" s="16"/>
-      <c r="K174" s="16"/>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A175" s="17"/>
-      <c r="B175" s="16"/>
-      <c r="C175" s="17"/>
-      <c r="D175" s="17"/>
-      <c r="E175" s="16"/>
-      <c r="F175" s="17"/>
-      <c r="G175" s="16"/>
-      <c r="H175" s="16"/>
+      <c r="I174" s="17"/>
+      <c r="J174" s="17"/>
+      <c r="K174" s="19"/>
+    </row>
+    <row r="175" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B175" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D175" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E175" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F175" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G175" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H175" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="I175" s="17"/>
       <c r="J175" s="17"/>
       <c r="K175" s="19"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A176" s="17"/>
-      <c r="B176" s="16"/>
-      <c r="C176" s="17"/>
-      <c r="D176" s="16"/>
-      <c r="E176" s="16"/>
-      <c r="F176" s="16"/>
-      <c r="G176" s="16"/>
-      <c r="H176" s="16"/>
-      <c r="I176" s="16"/>
-      <c r="J176" s="16"/>
-      <c r="K176" s="16"/>
-    </row>
-    <row r="177" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B177" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C177" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D177" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E177" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F177" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G177" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H177" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I177" s="17"/>
-      <c r="J177" s="17"/>
-      <c r="K177" s="19"/>
-    </row>
-    <row r="178" spans="1:14" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="119" t="s">
+    <row r="176" spans="1:14" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="B178" s="120" t="s">
+      <c r="B176" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="121" t="s">
+      <c r="C176" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="122" t="s">
+      <c r="D176" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E178" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="F178" s="124" t="s">
+      <c r="E176" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="F176" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="G178" s="125" t="s">
+      <c r="G176" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="H178" s="126" t="s">
+      <c r="H176" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="I178" s="127" t="s">
+      <c r="I176" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="J178" s="128" t="s">
+      <c r="J176" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="K178" s="129" t="s">
+      <c r="K176" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="L178" s="130" t="s">
-        <v>43</v>
-      </c>
-      <c r="M178" s="131" t="s">
+      <c r="L176" s="116" t="s">
+        <v>42</v>
+      </c>
+      <c r="M176" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="N178" s="132">
-        <f>SUM(K179:K185)</f>
+      <c r="N176" s="118">
+        <f>SUM(K185:K191)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A177" s="17"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="16"/>
+      <c r="F177" s="16"/>
+      <c r="G177" s="16"/>
+      <c r="H177" s="16"/>
+      <c r="I177" s="16"/>
+      <c r="J177" s="16"/>
+      <c r="K177" s="16"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A178" s="17"/>
+      <c r="B178" s="16"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="16"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="16"/>
+      <c r="H178" s="16"/>
+      <c r="I178" s="17"/>
+      <c r="J178" s="17"/>
+      <c r="K178" s="19"/>
+    </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A179" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B179" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C179" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D179" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F179" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G179" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H179" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="A179" s="17"/>
+      <c r="B179" s="16"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="16"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="16"/>
+      <c r="H179" s="16"/>
       <c r="I179" s="17"/>
       <c r="J179" s="17"/>
       <c r="K179" s="19"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A180" s="137"/>
-      <c r="B180" s="133"/>
-      <c r="C180" s="137"/>
-      <c r="D180" s="137"/>
-      <c r="E180" s="133"/>
-      <c r="F180" s="137"/>
-      <c r="G180" s="133"/>
-      <c r="H180" s="133"/>
-      <c r="I180" s="137"/>
-      <c r="J180" s="137"/>
-      <c r="K180" s="134"/>
+      <c r="A180" s="17"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="17"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="16"/>
+      <c r="G180" s="16"/>
+      <c r="H180" s="16"/>
+      <c r="I180" s="16"/>
+      <c r="J180" s="16"/>
+      <c r="K180" s="16"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A181" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="B181" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="C181" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="D181" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="E181" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="F181" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="G181" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="H181" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="I181" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="J181" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="K181" s="138"/>
+      <c r="A181" s="17"/>
+      <c r="B181" s="16"/>
+      <c r="C181" s="17"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="16"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="16"/>
+      <c r="H181" s="16"/>
+      <c r="I181" s="17"/>
+      <c r="J181" s="17"/>
+      <c r="K181" s="19"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A182" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="B182" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="C182" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="D182" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="E182" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="F182" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="G182" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="H182" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="I182" s="139"/>
-      <c r="J182" s="139"/>
-      <c r="K182" s="140"/>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A183" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="B183" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="C183" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="D183" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="E183" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="F183" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="G183" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="H183" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="I183" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="J183" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="K183" s="138"/>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A184" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="B184" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="C184" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="D184" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="E184" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="F184" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="G184" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="H184" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="I184" s="139"/>
-      <c r="J184" s="139"/>
-      <c r="K184" s="140"/>
-    </row>
-    <row r="185" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B185" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C185" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D185" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E185" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F185" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G185" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H185" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I185" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="J185" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="K185" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="L188" s="5" t="s">
+      <c r="A182" s="17"/>
+      <c r="B182" s="16"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="16"/>
+      <c r="G182" s="16"/>
+      <c r="H182" s="16"/>
+      <c r="I182" s="16"/>
+      <c r="J182" s="16"/>
+      <c r="K182" s="16"/>
+    </row>
+    <row r="183" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B183" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E183" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F183" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G183" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H183" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I183" s="17"/>
+      <c r="J183" s="17"/>
+      <c r="K183" s="19"/>
+    </row>
+    <row r="184" spans="1:14" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="B184" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="C184" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="F184" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="G184" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="H184" s="126" t="s">
+        <v>10</v>
+      </c>
+      <c r="I184" s="127" t="s">
+        <v>3</v>
+      </c>
+      <c r="J184" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="K184" s="129" t="s">
+        <v>4</v>
+      </c>
+      <c r="L184" s="130" t="s">
+        <v>43</v>
+      </c>
+      <c r="M184" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="N184" s="132">
+        <f>SUM(K185:K191)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A185" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B185" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C185" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F185" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G185" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H185" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I185" s="17"/>
+      <c r="J185" s="17"/>
+      <c r="K185" s="19"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A186" s="137"/>
+      <c r="B186" s="133"/>
+      <c r="C186" s="137"/>
+      <c r="D186" s="137"/>
+      <c r="E186" s="133"/>
+      <c r="F186" s="137"/>
+      <c r="G186" s="133"/>
+      <c r="H186" s="133"/>
+      <c r="I186" s="137"/>
+      <c r="J186" s="137"/>
+      <c r="K186" s="134"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A187" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="B187" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="C187" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="D187" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="E187" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="F187" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="G187" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="H187" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="I187" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="J187" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="K187" s="138"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A188" s="139" t="s">
+        <v>33</v>
+      </c>
+      <c r="B188" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188" s="139" t="s">
+        <v>33</v>
+      </c>
+      <c r="D188" s="139" t="s">
+        <v>33</v>
+      </c>
+      <c r="E188" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="F188" s="139" t="s">
+        <v>33</v>
+      </c>
+      <c r="G188" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="H188" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="I188" s="139"/>
+      <c r="J188" s="139"/>
+      <c r="K188" s="140"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A189" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="B189" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="D189" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="E189" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="F189" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="G189" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="H189" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="I189" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="J189" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="K189" s="138"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A190" s="139" t="s">
+        <v>33</v>
+      </c>
+      <c r="B190" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="C190" s="139" t="s">
+        <v>33</v>
+      </c>
+      <c r="D190" s="139" t="s">
+        <v>33</v>
+      </c>
+      <c r="E190" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="F190" s="139" t="s">
+        <v>33</v>
+      </c>
+      <c r="G190" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="H190" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="I190" s="139"/>
+      <c r="J190" s="139"/>
+      <c r="K190" s="140"/>
+    </row>
+    <row r="191" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B191" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C191" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D191" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E191" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F191" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G191" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H191" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I191" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J191" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K191" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="194" spans="12:14" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="L194" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M188" s="6" t="s">
+      <c r="M194" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N188" s="7">
-        <f>SUM(N1:N186)</f>
+      <c r="N194" s="7">
+        <f>SUM(N1:N192)</f>
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B12:H12"/>
     <mergeCell ref="B26:J26"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B10:H10"/>
@@ -5675,6 +5806,16 @@
     <mergeCell ref="B18:J18"/>
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39000000000000007" right="0.39000000000000007" top="0.87" bottom="0.59" header="0.2" footer="0.2"/>
